--- a/5.프로그램목록_v1.0.xlsx
+++ b/5.프로그램목록_v1.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33980A-DEC7-48CB-9F60-7A221379680D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -46,12 +45,12 @@
     <definedName name="ㅇㅇㅇ">#REF!</definedName>
     <definedName name="ㅎ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcMode="manual"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>전자약정 및 웹서비스 통합플랫폼 구축</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -221,10 +220,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AS-IS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AS_IS 명
 (기능명)</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -262,13 +257,6 @@
     <t>DS01_프로그램_005</t>
   </si>
   <si>
-    <t>DS01_프로그램_006</t>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>문서번호:KIBO_PCU_DS03</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -293,72 +281,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/login/login.php</t>
-  </si>
-  <si>
-    <t>/public/register/register.php</t>
-  </si>
-  <si>
-    <t>/public/login/logout.php</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/main/main.php</t>
-  </si>
-  <si>
-    <t>사용자페이지</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/attendance_check/attendance_check.php</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석체크</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생별 수강과목 QR코드 생성 및 출석처리</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 및 낙제 주의 과목 출력</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/public/attendance_status/attendance_status.php</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생별 수강과목 일별 출결현황 및 년별 출결현황 출력</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석현황</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>유형</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -371,14 +298,87 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>회원가입</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴선택</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석확인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AS-IS
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.jsp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">login.jsp / loginPost.jsp </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">choice.jsp </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main.jsp </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">checking.jsp </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 회원가입</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 로그인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>I,R</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석확인(QR 코드 생성, 출석정보 저장,수강과목조회)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴선택(출석체크 or 출석확인(CombBox Setting))</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출석체크( 과목별 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -1008,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1143,6 +1143,27 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,6 +1173,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,52 +1227,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,49 +1265,43 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="12"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="표준 3 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="표준 3 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="표준 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="표준 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 5 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="표준 5 3" xfId="13" xr:uid="{B038C623-E35B-400E-B982-FF591D052FAB}"/>
-    <cellStyle name="표준 5 3 2" xfId="19" xr:uid="{B038C623-E35B-400E-B982-FF591D052FAB}"/>
-    <cellStyle name="표준 5 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="표준 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="표준 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="표준 7" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="하이퍼링크 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2 2" xfId="14"/>
+    <cellStyle name="표준 3" xfId="4"/>
+    <cellStyle name="표준 3 2" xfId="9"/>
+    <cellStyle name="표준 3 3" xfId="3"/>
+    <cellStyle name="표준 3 4" xfId="15"/>
+    <cellStyle name="표준 4" xfId="5"/>
+    <cellStyle name="표준 4 2" xfId="10"/>
+    <cellStyle name="표준 4 3" xfId="16"/>
+    <cellStyle name="표준 5" xfId="6"/>
+    <cellStyle name="표준 5 2" xfId="1"/>
+    <cellStyle name="표준 5 3" xfId="13"/>
+    <cellStyle name="표준 5 3 2" xfId="19"/>
+    <cellStyle name="표준 5 4" xfId="17"/>
+    <cellStyle name="표준 6" xfId="7"/>
+    <cellStyle name="표준 6 2" xfId="18"/>
+    <cellStyle name="표준 7" xfId="8"/>
+    <cellStyle name="하이퍼링크 2" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1344,7 +1341,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1391,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,26 +1505,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,23 +1540,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1752,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2029,16 +1992,16 @@
     <row r="4" spans="1:14" ht="31.5">
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="32.25" thickBot="1">
       <c r="A5" s="5"/>
@@ -2048,13 +2011,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" thickTop="1">
       <c r="A6" s="40"/>
@@ -2066,11 +2029,11 @@
       <c r="D7" s="4"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="J7" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" ht="17.25">
       <c r="B8" s="3"/>
@@ -2126,52 +2089,52 @@
     </row>
     <row r="17" spans="1:12" ht="20.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="15" t="s">
         <v>8</v>
       </c>
@@ -2181,22 +2144,22 @@
       <c r="I19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="61"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="1:12" ht="21" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="16" t="s">
         <v>14</v>
       </c>
@@ -2204,8 +2167,8 @@
       <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -2236,12 +2199,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H18:K18"/>
@@ -2250,6 +2207,12 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2278,15 +2241,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="23" t="s">
@@ -2444,15 +2407,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5"/>
@@ -2474,96 +2437,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="28" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="A2" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="69" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="69" t="s">
+      <c r="J4" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="68" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="42" t="s">
         <v>33</v>
       </c>
@@ -2576,11 +2539,11 @@
       <c r="G5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2598,38 +2561,38 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="C6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="85" t="s">
+      <c r="D6" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="89"/>
-      <c r="L6" s="88"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="29" t="str">
         <f>LOWER(O6)</f>
         <v>grnt</v>
@@ -2639,7 +2602,7 @@
         <v>01</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="36" t="s">
         <v>40</v>
@@ -2649,32 +2612,32 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="74"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="88"/>
+        <v>45</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="37" t="str">
         <f t="shared" ref="M7:M9" si="0">LOWER(O7)</f>
         <v>comn</v>
@@ -2684,7 +2647,7 @@
         <v>01</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="38" t="s">
         <v>40</v>
@@ -2694,30 +2657,32 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="74"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="88"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="37" t="str">
         <f t="shared" si="0"/>
         <v>comn</v>
@@ -2727,7 +2692,7 @@
         <v>01</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="38" t="s">
         <v>40</v>
@@ -2737,34 +2702,32 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="74"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="88"/>
+      <c r="J9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="29" t="str">
         <f t="shared" si="0"/>
         <v>grnt</v>
@@ -2774,7 +2737,7 @@
         <v>01</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="36" t="s">
         <v>40</v>
@@ -2783,75 +2746,46 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="24">
-      <c r="A10" s="74"/>
+    <row r="10" spans="1:17">
+      <c r="A10" s="76"/>
       <c r="B10" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="88"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="49"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
     </row>
-    <row r="11" spans="1:17" ht="24">
-      <c r="A11" s="75"/>
-      <c r="B11" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="88"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L3"/>
     <mergeCell ref="A4:A5"/>
@@ -2860,11 +2794,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3047,18 +2976,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3080,14 +3009,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402C8E1C-F2E3-475F-8CB2-9D204C0820EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3101,4 +3022,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5.프로그램목록_v1.0.xlsx
+++ b/5.프로그램목록_v1.0.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Dist_Bin" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">프로그램!$A$5:$Q$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">프로그램!$A$5:$Q$10</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Sort" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>전자약정 및 웹서비스 통합플랫폼 구축</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -355,23 +355,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>R</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>I,R</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>출석확인(QR 코드 생성, 출석정보 저장,수강과목조회)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴선택(출석체크 or 출석확인(CombBox Setting))</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">출석체크( 과목별 </t>
+    <t>DS01_프로그램_006</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크( 과목별 조회)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석확인(출석정보 저장,수강과목조회)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석확인 - QR코드 생성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QRCodeView.java / main.jsp </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1173,6 +1181,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,41 +1235,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1263,21 +1286,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,7 +1349,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1399,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,16 +2000,16 @@
     <row r="4" spans="1:14" ht="31.5">
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="32.25" thickBot="1">
       <c r="A5" s="5"/>
@@ -2011,13 +2019,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" thickTop="1">
       <c r="A6" s="40"/>
@@ -2029,11 +2037,11 @@
       <c r="D7" s="4"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:14" ht="17.25">
       <c r="B8" s="3"/>
@@ -2089,20 +2097,20 @@
     </row>
     <row r="17" spans="1:12" ht="20.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="17.25">
@@ -2119,12 +2127,12 @@
       <c r="G18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="10"/>
@@ -2144,22 +2152,22 @@
       <c r="I19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="57"/>
+      <c r="K19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="21" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="16" t="s">
         <v>14</v>
       </c>
@@ -2167,8 +2175,8 @@
       <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -2199,6 +2207,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H18:K18"/>
@@ -2207,12 +2221,6 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,11 +2419,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5"/>
@@ -2437,96 +2445,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="28" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="87" t="s">
+      <c r="N4" s="79"/>
+      <c r="O4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="42" t="s">
         <v>33</v>
       </c>
@@ -2539,11 +2547,11 @@
       <c r="G5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2561,7 +2569,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="80" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="43" t="s">
@@ -2570,10 +2578,10 @@
       <c r="C6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="85" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -2612,15 +2620,15 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="76"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="81"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="46" t="s">
         <v>57</v>
       </c>
@@ -2639,11 +2647,11 @@
       <c r="K7" s="50"/>
       <c r="L7" s="49"/>
       <c r="M7" s="37" t="str">
-        <f t="shared" ref="M7:M9" si="0">LOWER(O7)</f>
+        <f t="shared" ref="M7:M10" si="0">LOWER(O7)</f>
         <v>comn</v>
       </c>
       <c r="N7" s="37" t="str">
-        <f t="shared" ref="N7:N9" si="1">P7</f>
+        <f t="shared" ref="N7:N10" si="1">P7</f>
         <v>01</v>
       </c>
       <c r="O7" s="37" t="s">
@@ -2657,17 +2665,17 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="76"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>64</v>
@@ -2676,116 +2684,142 @@
         <v>70</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="49"/>
-      <c r="M8" s="37" t="str">
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="81"/>
+      <c r="B9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="37" t="str">
         <f t="shared" si="0"/>
         <v>comn</v>
       </c>
-      <c r="N8" s="37" t="str">
+      <c r="N9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q9" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="76"/>
-      <c r="B9" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="44" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="81"/>
+      <c r="B10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="46" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="29" t="str">
+      <c r="G10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="29" t="str">
         <f t="shared" si="0"/>
         <v>grnt</v>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N10" s="29" t="str">
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q10" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="76"/>
-      <c r="B10" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="44" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="81"/>
+      <c r="B11" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="51" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="50" t="s">
+      <c r="I11" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="49"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="49"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L3"/>
     <mergeCell ref="A4:A5"/>
@@ -2794,6 +2828,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2976,18 +3015,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3009,6 +3048,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402C8E1C-F2E3-475F-8CB2-9D204C0820EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3022,12 +3069,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/5.프로그램목록_v1.0.xlsx
+++ b/5.프로그램목록_v1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5706953-836D-45EE-9722-5CA5632DEFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="696" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -45,12 +46,12 @@
     <definedName name="ㅇㅇㅇ">#REF!</definedName>
     <definedName name="ㅎ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>전자약정 및 웹서비스 통합플랫폼 구축</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -233,10 +234,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>회원</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>GRNT</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -289,10 +286,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CR</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>출력
 여부</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -306,10 +299,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴선택</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>출석체크</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -331,14 +320,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">choice.jsp </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">main.jsp </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">checking.jsp </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -355,22 +336,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>I,R</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴선택(출석체크 or 출석확인(CombBox Setting))</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS01_프로그램_006</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석체크( 과목별 조회)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>출석확인(출석정보 저장,수강과목조회)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -380,13 +345,49 @@
   </si>
   <si>
     <t xml:space="preserve">QRCodeView.java / main.jsp </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 출석확인</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager.jsp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목별 수강학생 확인 및 출결 조회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C,R,U</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C,R,U</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>R,U</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생, 관리자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -1016,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1181,6 +1182,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,44 +1236,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,28 +1274,46 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Hyperlink" xfId="12"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 2 2" xfId="14"/>
-    <cellStyle name="표준 3" xfId="4"/>
-    <cellStyle name="표준 3 2" xfId="9"/>
-    <cellStyle name="표준 3 3" xfId="3"/>
-    <cellStyle name="표준 3 4" xfId="15"/>
-    <cellStyle name="표준 4" xfId="5"/>
-    <cellStyle name="표준 4 2" xfId="10"/>
-    <cellStyle name="표준 4 3" xfId="16"/>
-    <cellStyle name="표준 5" xfId="6"/>
-    <cellStyle name="표준 5 2" xfId="1"/>
-    <cellStyle name="표준 5 3" xfId="13"/>
-    <cellStyle name="표준 5 3 2" xfId="19"/>
-    <cellStyle name="표준 5 4" xfId="17"/>
-    <cellStyle name="표준 6" xfId="7"/>
-    <cellStyle name="표준 6 2" xfId="18"/>
-    <cellStyle name="표준 7" xfId="8"/>
-    <cellStyle name="하이퍼링크 2" xfId="11"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준 3 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="표준 3 4" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="표준 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="표준 4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="표준 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="표준 5 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="표준 5 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="표준 5 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="표준 5 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="표준 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="표준 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="표준 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="하이퍼링크 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1349,7 +1353,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1403,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,9 +1517,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1548,6 +1569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1723,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2000,16 +2038,16 @@
     <row r="4" spans="1:14" ht="31.5">
       <c r="B4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="32.25" thickBot="1">
       <c r="A5" s="5"/>
@@ -2019,13 +2057,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" thickTop="1">
       <c r="A6" s="40"/>
@@ -2037,11 +2075,11 @@
       <c r="D7" s="4"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="J7" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" ht="17.25">
       <c r="B8" s="3"/>
@@ -2097,20 +2135,20 @@
     </row>
     <row r="17" spans="1:12" ht="20.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="17.25">
@@ -2120,19 +2158,19 @@
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="10"/>
@@ -2152,22 +2190,22 @@
       <c r="I19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="1:12" ht="21" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="16" t="s">
         <v>14</v>
       </c>
@@ -2175,8 +2213,8 @@
       <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="17.25">
@@ -2207,12 +2245,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="H18:K18"/>
@@ -2221,6 +2253,12 @@
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2415,22 +2453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.25" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="29" customWidth="1"/>
     <col min="6" max="6" width="23" style="31" bestFit="1" customWidth="1"/>
@@ -2445,96 +2483,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="28" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:17" s="28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="76" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="76" t="s">
+      <c r="J4" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="79"/>
-      <c r="O4" s="75" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:17" ht="27" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="42" t="s">
         <v>33</v>
       </c>
@@ -2547,11 +2585,11 @@
       <c r="G5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2569,35 +2607,35 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="75" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>73</v>
-      </c>
       <c r="J6" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="49"/>
@@ -2610,7 +2648,7 @@
         <v>01</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="36" t="s">
         <v>40</v>
@@ -2620,29 +2658,29 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="81"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="86"/>
+        <v>80</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="50" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>74</v>
       </c>
       <c r="K7" s="50"/>
       <c r="L7" s="49"/>
@@ -2655,7 +2693,7 @@
         <v>01</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="38" t="s">
         <v>40</v>
@@ -2665,29 +2703,29 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="81"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="49"/>
@@ -2698,29 +2736,29 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="81"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>80</v>
-      </c>
       <c r="J9" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="49"/>
@@ -2733,7 +2771,7 @@
         <v>01</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="38" t="s">
         <v>40</v>
@@ -2743,28 +2781,30 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="81"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="46" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="51" t="s">
+        <v>56</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="50"/>
+        <v>76</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="K10" s="50"/>
       <c r="L10" s="49"/>
       <c r="M10" s="29" t="str">
@@ -2776,7 +2816,7 @@
         <v>01</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="36" t="s">
         <v>40</v>
@@ -2785,41 +2825,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="81"/>
-      <c r="B11" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="49"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L3"/>
     <mergeCell ref="A4:A5"/>
@@ -2828,11 +2843,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2845,6 +2855,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F52CA7997D9787408D707D1BA85AF63C" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="32212bb438ab880763cb0b65f41616d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33e2fe05-db15-4e39-8b35-7689cc124370" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="095822ebd38cad2f491effdf24e93c45" ns2:_="">
     <xsd:import namespace="33e2fe05-db15-4e39-8b35-7689cc124370"/>
@@ -3014,22 +3039,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402C8E1C-F2E3-475F-8CB2-9D204C0820EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="bd5c06d0-0d80-408b-869c-235a7549c7d8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35ADFB67-093E-4077-A49A-EB074C399563}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3045,28 +3079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231FF65B-7903-47F7-83BC-11113BB10CAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{402C8E1C-F2E3-475F-8CB2-9D204C0820EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="bd5c06d0-0d80-408b-869c-235a7549c7d8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>